--- a/docs/controle.xlsx
+++ b/docs/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelo/Meu Drive (marceloasouza52@gmail.com)/senac/oitavo-semestre/engenharia-de-software2/projeto/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5311D3C3-59F9-014C-8C87-27878FCC34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C7D81-6840-1E40-988B-6A214F528845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="3" xr2:uid="{E166ED89-6562-4373-A416-CC4B8503D8FA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Anderson Akira Mekaru</t>
   </si>
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,7 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,9 +441,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,9 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,6 +541,15 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,9 +563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,6 +750,47 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Burndown!$C$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Burndown!$C$20:$M$20</c:f>
@@ -881,6 +928,47 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Burndown!$C$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Burndown!$C$21:$M$21</c:f>
@@ -972,7 +1060,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Sprints</a:t>
+                  <a:t>Datas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1092,7 +1180,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Total de Horas</a:t>
+                  <a:t>Total de horas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1785,15 +1873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128905</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1818,6 +1906,144 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429838</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429838</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector Reto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AFB75D-3622-6A88-4F4E-E35D19B8B76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6984992" y="4591539"/>
+          <a:ext cx="0" cy="2354385"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:alpha val="63437"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400537</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68383</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1103924" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0254FBFB-F4C9-BF52-5502-E6E5CF9A5E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6955691" y="6320691"/>
+          <a:ext cx="1103924" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Momento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> atual do projeto</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2167,6 +2393,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Aptos"&amp;10&amp;K000000 Uso Geral&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2175,7 +2404,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2188,300 +2417,303 @@
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Aptos"&amp;10&amp;K000000 Uso Geral&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2489,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237F1091-3FE6-49BE-9E4E-23F5A0DBEFF2}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2504,505 +2736,505 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="52" t="s">
         <v>37</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="41">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="40">
         <v>2</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="41">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="40">
         <v>2</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="42">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="41">
         <v>5</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="50">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="48">
         <v>2</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="51">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="49">
         <v>2</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="43">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="42">
         <v>4</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="43">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="42">
         <v>3</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="44">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="43">
         <v>2</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="44">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="43">
         <v>1</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="45">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="44">
         <v>3</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="46">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="54">
         <v>4</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>3</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="47">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="50">
         <f>SUM(B3:B18)</f>
         <v>38</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="50">
         <f t="shared" ref="C20:M20" si="0">IF(SUM(C3:C18)&gt;0,B20-SUM(C3:C18),"")</f>
         <v>36</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="50">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="50">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="50">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <f>B20</f>
         <v>38</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <f t="shared" ref="C21:M21" si="1">B21-($B$21/COUNTA($C$2:$M$2))</f>
         <v>34.545454545454547</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="51">
         <f t="shared" si="1"/>
         <v>31.090909090909093</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="51">
         <f t="shared" si="1"/>
         <v>27.63636363636364</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="51">
         <f t="shared" si="1"/>
         <v>24.181818181818187</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="51">
         <f t="shared" si="1"/>
         <v>20.727272727272734</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="51">
         <f t="shared" si="1"/>
         <v>17.27272727272728</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="51">
         <f t="shared" si="1"/>
         <v>13.818181818181825</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="51">
         <f t="shared" si="1"/>
         <v>10.36363636363637</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="51">
         <f t="shared" si="1"/>
         <v>6.9090909090909154</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="51">
         <f t="shared" si="1"/>
         <v>3.4545454545454608</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="51">
         <f t="shared" si="1"/>
         <v>6.2172489379008766E-15</v>
       </c>
@@ -3016,6 +3248,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Aptos"&amp;10&amp;K000000 Uso Geral&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3025,7 +3260,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3035,213 +3270,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
@@ -3250,10 +3487,22 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Aptos"&amp;10&amp;K000000 Uso Geral&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100754B351E8A6E7649BF30E6B840EC0436" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9bbc7b9183649a6d9716a89e120180b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eff2e8f5-27d7-4f61-9f93-1cf91307dac9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b66f89bbecccfdd766b6574b40f12ec" ns2:_="">
     <xsd:import namespace="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
@@ -3437,7 +3686,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="eff2e8f5-27d7-4f61-9f93-1cf91307dac9">
@@ -3447,16 +3696,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A829F1-35C3-4A75-8FD7-FF6D25F10C80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128F90C2-F667-4057-B969-511C7587B661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3474,7 +3722,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA2EB68-5829-4389-86C8-A3A6F8F290CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3484,10 +3732,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A829F1-35C3-4A75-8FD7-FF6D25F10C80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{5d722c75-9049-497d-aec7-8c09c4025ead}" enabled="1" method="Standard" siteId="{7da4edd9-50bb-48f7-81af-0ca98f2c9594}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>
--- a/docs/controle.xlsx
+++ b/docs/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelo/Meu Drive (marceloasouza52@gmail.com)/senac/oitavo-semestre/engenharia-de-software2/projeto/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C7D81-6840-1E40-988B-6A214F528845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CD648-7D39-E44A-9739-840EF0EE9FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="3" xr2:uid="{E166ED89-6562-4373-A416-CC4B8503D8FA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Anderson Akira Mekaru</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Datas previstas</t>
+  </si>
+  <si>
+    <t>Testes que envolvem elementos do navegador como armazenamento local ou animação não são suportados nativamente pelo Jest. Importante avaliar outras alternativas de teste.</t>
+  </si>
+  <si>
+    <t>Além das correções das falhas identificadas nos testes, executou-se algumas melhorias na interface do jogo.</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,12 +366,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -544,9 +544,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +560,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,31 +798,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
@@ -976,37 +976,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>34.545454545454547</c:v>
+                  <c:v>47.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.090909090909093</c:v>
+                  <c:v>42.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.63636363636364</c:v>
+                  <c:v>37.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.181818181818187</c:v>
+                  <c:v>33.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.727272727272734</c:v>
+                  <c:v>28.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.27272727272728</c:v>
+                  <c:v>23.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.818181818181825</c:v>
+                  <c:v>18.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.36363636363637</c:v>
+                  <c:v>14.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9090909090909154</c:v>
+                  <c:v>9.4545454545454604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4545454545454608</c:v>
+                  <c:v>4.7272727272727328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2172489379008766E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,14 +1908,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>429838</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302825</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>97693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>429838</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302825</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>107462</xdr:rowOff>
     </xdr:to>
@@ -1932,7 +1932,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6984992" y="4591539"/>
+          <a:off x="11928210" y="4591539"/>
           <a:ext cx="0" cy="2354385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1969,9 +1969,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400537</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683844</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>68383</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1103924" cy="436786"/>
@@ -1988,7 +1988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955691" y="6320691"/>
+          <a:off x="10804767" y="6125306"/>
           <a:ext cx="1103924" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2417,37 +2417,37 @@
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2736,46 +2736,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="52" t="s">
@@ -2991,7 +2991,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -3000,11 +3000,17 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="42">
-        <v>4</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="42">
+        <v>5</v>
+      </c>
+      <c r="K12" s="42">
+        <v>5</v>
+      </c>
+      <c r="L12" s="42">
+        <v>2</v>
+      </c>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3012,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -3021,10 +3027,14 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="42">
-        <v>3</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="42">
+        <v>2</v>
+      </c>
+      <c r="K13" s="42">
+        <v>4</v>
+      </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
     </row>
@@ -3107,7 +3117,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="54">
+      <c r="L17" s="53">
         <v>4</v>
       </c>
       <c r="M17" s="28"/>
@@ -3139,43 +3149,43 @@
       </c>
       <c r="B20" s="50">
         <f>SUM(B3:B18)</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C20" s="50">
         <f t="shared" ref="C20:M20" si="0">IF(SUM(C3:C18)&gt;0,B20-SUM(C3:C18),"")</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D20" s="50">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E20" s="50">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F20" s="50">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G20" s="50">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J20" s="50">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K20" s="50">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" s="50">
         <f t="shared" si="0"/>
@@ -3192,51 +3202,51 @@
       </c>
       <c r="B21" s="51">
         <f>B20</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C21" s="51">
         <f t="shared" ref="C21:M21" si="1">B21-($B$21/COUNTA($C$2:$M$2))</f>
-        <v>34.545454545454547</v>
+        <v>47.272727272727273</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="1"/>
-        <v>31.090909090909093</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="E21" s="51">
         <f t="shared" si="1"/>
-        <v>27.63636363636364</v>
+        <v>37.81818181818182</v>
       </c>
       <c r="F21" s="51">
         <f t="shared" si="1"/>
-        <v>24.181818181818187</v>
+        <v>33.090909090909093</v>
       </c>
       <c r="G21" s="51">
         <f t="shared" si="1"/>
-        <v>20.727272727272734</v>
+        <v>28.363636363636367</v>
       </c>
       <c r="H21" s="51">
         <f t="shared" si="1"/>
-        <v>17.27272727272728</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="I21" s="51">
         <f t="shared" si="1"/>
-        <v>13.818181818181825</v>
+        <v>18.909090909090914</v>
       </c>
       <c r="J21" s="51">
         <f t="shared" si="1"/>
-        <v>10.36363636363637</v>
+        <v>14.181818181818187</v>
       </c>
       <c r="K21" s="51">
         <f t="shared" si="1"/>
-        <v>6.9090909090909154</v>
+        <v>9.4545454545454604</v>
       </c>
       <c r="L21" s="51">
         <f t="shared" si="1"/>
-        <v>3.4545454545454608</v>
+        <v>4.7272727272727328</v>
       </c>
       <c r="M21" s="51">
         <f t="shared" si="1"/>
-        <v>6.2172489379008766E-15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3411,8 +3421,12 @@
         <v>44</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -3422,8 +3436,12 @@
         <v>44</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -3433,7 +3451,9 @@
         <v>8</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,7 +3463,9 @@
       <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="8"/>
     </row>
@@ -3454,7 +3476,9 @@
       <c r="B15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="59" t="s">
+        <v>9</v>
+      </c>
       <c r="D15" s="28"/>
       <c r="E15" s="8"/>
     </row>
@@ -3465,7 +3489,9 @@
       <c r="B16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="59" t="s">
+        <v>9</v>
+      </c>
       <c r="D16" s="28"/>
       <c r="E16" s="8"/>
     </row>
@@ -3476,7 +3502,9 @@
       <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="59" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="28"/>
       <c r="E17" s="8"/>
     </row>
@@ -3503,6 +3531,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eff2e8f5-27d7-4f61-9f93-1cf91307dac9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100754B351E8A6E7649BF30E6B840EC0436" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9bbc7b9183649a6d9716a89e120180b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eff2e8f5-27d7-4f61-9f93-1cf91307dac9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b66f89bbecccfdd766b6574b40f12ec" ns2:_="">
     <xsd:import namespace="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
@@ -3686,16 +3724,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eff2e8f5-27d7-4f61-9f93-1cf91307dac9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A829F1-35C3-4A75-8FD7-FF6D25F10C80}">
   <ds:schemaRefs>
@@ -3705,6 +3733,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA2EB68-5829-4389-86C8-A3A6F8F290CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128F90C2-F667-4057-B969-511C7587B661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3722,16 +3760,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA2EB68-5829-4389-86C8-A3A6F8F290CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5d722c75-9049-497d-aec7-8c09c4025ead}" enabled="1" method="Standard" siteId="{7da4edd9-50bb-48f7-81af-0ca98f2c9594}" contentBits="1" removed="0"/>

--- a/docs/controle.xlsx
+++ b/docs/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelo/Meu Drive (marceloasouza52@gmail.com)/senac/oitavo-semestre/engenharia-de-software2/projeto/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CD648-7D39-E44A-9739-840EF0EE9FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263C7FF-ADE3-044A-A089-4A735E2C6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="3" xr2:uid="{E166ED89-6562-4373-A416-CC4B8503D8FA}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,9 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3270,7 +3267,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3463,10 +3460,10 @@
       <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="28"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3476,10 +3473,10 @@
       <c r="B15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="28"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3489,10 +3486,10 @@
       <c r="B16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="28"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3502,7 +3499,7 @@
       <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="28"/>
@@ -3531,16 +3528,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eff2e8f5-27d7-4f61-9f93-1cf91307dac9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100754B351E8A6E7649BF30E6B840EC0436" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9bbc7b9183649a6d9716a89e120180b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eff2e8f5-27d7-4f61-9f93-1cf91307dac9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b66f89bbecccfdd766b6574b40f12ec" ns2:_="">
     <xsd:import namespace="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
@@ -3724,6 +3711,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eff2e8f5-27d7-4f61-9f93-1cf91307dac9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A829F1-35C3-4A75-8FD7-FF6D25F10C80}">
   <ds:schemaRefs>
@@ -3733,16 +3730,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA2EB68-5829-4389-86C8-A3A6F8F290CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128F90C2-F667-4057-B969-511C7587B661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3760,6 +3747,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA2EB68-5829-4389-86C8-A3A6F8F290CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eff2e8f5-27d7-4f61-9f93-1cf91307dac9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5d722c75-9049-497d-aec7-8c09c4025ead}" enabled="1" method="Standard" siteId="{7da4edd9-50bb-48f7-81af-0ca98f2c9594}" contentBits="1" removed="0"/>
